--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -25,7 +25,7 @@
     <t>(prefixo)_DGE_SQE_B1_P10_decreto_criacao</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B1_P8_natureza_da_escola}=1or2</t>
+    <t>${(prefixo)_DGE_SQE_B1_P8_natureza_da_escola}=1or${(prefixo)_DGE_SQE_B1_P8_natureza_da_escola}=2</t>
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B1_P11_licenca</t>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -472,7 +472,7 @@
     <t>(prefixo)_DEE_SQ2CFP_B1_P8_60_descrever_outras_discplinas</t>
   </si>
   <si>
-    <t>${(prefixo)_DEE_SQ2CFP_B1_P8_56_num_total_docentes_professores_outras}&gt;=1or</t>
+    <t>${(prefixo)_DEE_SQ2CFP_B1_P8_56_num_total_docentes_professores_outras}&gt;=1</t>
   </si>
   <si>
     <t>(prefixo)_DEE_SQEA_B1_P1_8_modulo_1_outro_turno</t>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS DA FASE 2\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CB4C6-E410-47A6-B0AA-73FCB1930684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$B$103</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -49,9 +58,6 @@
     <t>(prefixo)_DGE_SQE_B2_P3_4_tipo_conexao_internet_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}=7</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B2_P3_5_num_computadores_conexao_internet</t>
   </si>
   <si>
@@ -64,9 +70,6 @@
     <t>(prefixo)_DGE_SQE_B2_P4_3_tipo_conexao_internet_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}=7</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B2_P5_1_especifique_outro_equipamento</t>
   </si>
   <si>
@@ -76,9 +79,6 @@
     <t>(prefixo)_DGE_SQE_B2_P6_1_especifique_outro</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}=9</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B2_P10_1_sistema_esvaziamento_transporte_residuo_liquido_especifique</t>
   </si>
   <si>
@@ -94,9 +94,6 @@
     <t>(prefixo)_DGE_SQE_B2_P12_1_principal_fonte_agua_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P12_0_principal_fonte_agua_disponivel}=8</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B2_P12_5_indique_metodo_tratamento</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>(prefixo)_DGE_SQE_B2_P14_1_principal_fonte_eliminacao_residuos_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}=5</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B2_P15_1_participa_programa_Especifique</t>
   </si>
   <si>
@@ -130,21 +124,12 @@
     <t>(prefixo)_DGE_SQE_B3_P2_1_estado_conservacao_salas_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}=5</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B3_P3_1_situacao_salas_aula_uso_escola_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}=4</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B3_P4_1_outro_especifique</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}=6</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B3_P7_1_indique_salas_anexas</t>
   </si>
   <si>
@@ -617,13 +602,36 @@
   </si>
   <si>
     <t>${(prefixo)_DEE_SQEE_B1_P8_415_total_masc_deficiencia_outra}&gt;=1or${(prefixo)_DEE_SQEE_B1_P8_416_total_fem_deficiencia_outra}&gt;=1</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P12_0_principal_fonte_agua_disponivel}=9</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_QE_B2_P4_2_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_QE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_QE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_QE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_QE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_QE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,23 +661,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -680,10 +685,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -721,71 +726,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -813,7 +818,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -836,11 +841,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -849,13 +854,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -865,7 +870,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -874,7 +879,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -883,7 +888,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -891,10 +896,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -959,842 +964,842 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="79.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="199.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="199" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1" t="s">
+      <c r="B15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1" t="s">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="B21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1" t="s">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1" t="s">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1" t="s">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1" t="s">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1" t="s">
+      <c r="B34" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1" t="s">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1" t="s">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B37" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1" t="s">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1" t="s">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1" t="s">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1" t="s">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1" t="s">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B43" t="s">
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1" t="s">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1" t="s">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B45" t="s">
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1" t="s">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1" t="s">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1" t="s">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1" t="s">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B51" t="s">
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1" t="s">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B52" t="s">
         <v>90</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1" t="s">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1" t="s">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B54" t="s">
         <v>94</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1" t="s">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B55" t="s">
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1" t="s">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B56" t="s">
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1" t="s">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1" t="s">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B58" t="s">
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1" t="s">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B59" t="s">
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1" t="s">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1" t="s">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1" t="s">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1" t="s">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B63" t="s">
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1" t="s">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1" t="s">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B65" t="s">
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1" t="s">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" t="s">
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1" t="s">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B67" t="s">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1" t="s">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B68" t="s">
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1" t="s">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1" t="s">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B70" t="s">
         <v>126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1" t="s">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B71" t="s">
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1" t="s">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B72" t="s">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1" t="s">
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B73" t="s">
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1" t="s">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B74" t="s">
         <v>134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1" t="s">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B75" t="s">
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1" t="s">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1" t="s">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>139</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B77" t="s">
         <v>140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1" t="s">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>141</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B78" t="s">
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1" t="s">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B79" t="s">
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="1" t="s">
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B80" t="s">
         <v>146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="1" t="s">
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B81" t="s">
         <v>148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="1" t="s">
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B82" t="s">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="1" t="s">
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B83" t="s">
         <v>152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="1" t="s">
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>153</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B84" t="s">
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="1" t="s">
+    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>155</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B85" t="s">
         <v>156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="1" t="s">
+    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>157</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B86" t="s">
         <v>158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="1" t="s">
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B87" t="s">
         <v>160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="1" t="s">
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B88" t="s">
         <v>162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="1" t="s">
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>163</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B89" t="s">
         <v>164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="1" t="s">
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B90" t="s">
         <v>166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="1" t="s">
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
         <v>167</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B91" t="s">
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="1" t="s">
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B92" t="s">
         <v>170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="1" t="s">
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B93" t="s">
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="1" t="s">
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>173</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B94" t="s">
         <v>174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="1" t="s">
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>175</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B95" t="s">
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="1" t="s">
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>177</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B96" t="s">
         <v>178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="1" t="s">
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>179</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B97" t="s">
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="1" t="s">
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B98" t="s">
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="1" t="s">
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>183</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B99" t="s">
         <v>184</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="1" t="s">
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>185</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B100" t="s">
         <v>186</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="1" t="s">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B101" t="s">
         <v>188</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="1" t="s">
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B102" t="s">
         <v>190</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="1" t="s">
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>191</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B103" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS DA FASE 2\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544CB4C6-E410-47A6-B0AA-73FCB1930684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19AC7C-8159-484C-A9EB-AB7C44F232E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="219">
   <si>
     <t>variavel</t>
   </si>
@@ -626,6 +626,60 @@
   </si>
   <si>
     <t>${(prefixo)_DGE_QE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
+  </si>
+  <si>
+    <t>qepe</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
+    <t>qep</t>
+  </si>
+  <si>
+    <t>q1cg</t>
+  </si>
+  <si>
+    <t>q2cg</t>
+  </si>
+  <si>
+    <t>q1cp</t>
+  </si>
+  <si>
+    <t>q2cp</t>
+  </si>
+  <si>
+    <t>q2cfp</t>
+  </si>
+  <si>
+    <t>qea</t>
+  </si>
+  <si>
+    <t>qee</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
 </sst>
 </file>
@@ -968,9 +1022,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1802,6 +1858,78 @@
         <v>192</v>
       </c>
     </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS DA FASE 2\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19AC7C-8159-484C-A9EB-AB7C44F232E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2BB538-5A99-4513-A508-844F21BF161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,24 +610,6 @@
     <t>${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_QE_B2_P4_2_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_QE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_QE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_QE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_QE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_QE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
-  </si>
-  <si>
     <t>qepe</t>
   </si>
   <si>
@@ -680,6 +662,24 @@
   </si>
   <si>
     <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,74 +1860,74 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2BB538-5A99-4513-A508-844F21BF161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C22AF3-4D2D-4232-B6E7-5EF97D92105D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,15 +607,9 @@
     <t>${(prefixo)_DGE_SQE_B2_P12_0_principal_fonte_agua_disponivel}=9</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
     <t>qepe</t>
   </si>
   <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
-  </si>
-  <si>
     <t>qep</t>
   </si>
   <si>
@@ -640,46 +634,52 @@
     <t>qee</t>
   </si>
   <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
+    <t>(${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
+    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1860,74 +1860,74 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C22AF3-4D2D-4232-B6E7-5EF97D92105D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C96A1-846B-4DFC-AD5D-2E02B8853DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,46 +640,46 @@
     <t>(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
   </si>
   <si>
-    <t>(${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
-  </si>
-  <si>
     <t>(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
   </si>
   <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C96A1-846B-4DFC-AD5D-2E02B8853DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C2329-7662-4052-8698-E26B3802C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,12 +634,6 @@
     <t>qee</t>
   </si>
   <si>
-    <t>(${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
-    <t>(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
     <t>(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
   </si>
   <si>
@@ -680,6 +674,12 @@
   </si>
   <si>
     <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
         <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12C2329-7662-4052-8698-E26B3802C778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5F7B4-12D3-4C0A-A5E6-E2D1B7320F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -634,9 +634,6 @@
     <t>qee</t>
   </si>
   <si>
-    <t>(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
-  </si>
-  <si>
     <t>selected(${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>selected(${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1024,8 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
         <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C5F7B4-12D3-4C0A-A5E6-E2D1B7320F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E3C35-E9CE-47A0-82F7-BF409B2B06AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,33 +646,6 @@
     <t>selected(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
   </si>
   <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
-  </si>
-  <si>
     <t>selected(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
   </si>
   <si>
@@ -680,6 +653,33 @@
   </si>
   <si>
     <t>selected(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1863,7 +1863,7 @@
         <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1871,7 +1871,7 @@
         <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1879,7 +1879,7 @@
         <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1887,7 +1887,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1895,7 +1895,7 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1903,7 +1903,7 @@
         <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1911,7 +1911,7 @@
         <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
         <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1927,7 +1927,7 @@
         <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\OneDrive\Documentos\PAT-2\conversor-pat2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E3C35-E9CE-47A0-82F7-BF409B2B06AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84865A4A-1EE7-4023-AB36-C99B7650DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,9 +553,6 @@
     <t>(prefixo)_DEE_SQEE_B1_P4_418_descrever_opcao_outra_deficiencia</t>
   </si>
   <si>
-    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_idade_nao_especificada_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_idade_nao_especificada_outra_fem}&gt;=1</t>
-  </si>
-  <si>
     <t>(prefixo)_DEE_SQEE_B1_P6_6_descrever_opcao_outro_turno_7_classe</t>
   </si>
   <si>
@@ -680,6 +677,9 @@
   </si>
   <si>
     <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_deficiencia_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_deficiencia_outra_fem}&gt;=1</t>
   </si>
 </sst>
 </file>
@@ -1024,14 +1024,14 @@
   </sheetPr>
   <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B100" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="B84" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="199" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="86.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="198.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1111,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1127,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1151,7 +1151,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1207,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,143 +1791,143 @@
         <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
         <v>177</v>
-      </c>
-      <c r="B96" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
         <v>179</v>
-      </c>
-      <c r="B97" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
         <v>181</v>
-      </c>
-      <c r="B98" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" t="s">
         <v>183</v>
-      </c>
-      <c r="B99" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" t="s">
         <v>185</v>
-      </c>
-      <c r="B100" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
         <v>187</v>
-      </c>
-      <c r="B101" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
         <v>189</v>
-      </c>
-      <c r="B102" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
         <v>191</v>
-      </c>
-      <c r="B103" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84865A4A-1EE7-4023-AB36-C99B7650DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD880054-5014-41EE-9087-F2F139C1ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="220">
   <si>
     <t>variavel</t>
   </si>
@@ -553,6 +553,9 @@
     <t>(prefixo)_DEE_SQEE_B1_P4_418_descrever_opcao_outra_deficiencia</t>
   </si>
   <si>
+    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_idade_nao_especificada_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_idade_nao_especificada_outra_fem}&gt;=1</t>
+  </si>
+  <si>
     <t>(prefixo)_DEE_SQEE_B1_P6_6_descrever_opcao_outro_turno_7_classe</t>
   </si>
   <si>
@@ -643,6 +646,33 @@
     <t>selected(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
+  </si>
+  <si>
     <t>selected(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
   </si>
   <si>
@@ -652,41 +682,14 @@
     <t>selected(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
   </si>
   <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_deficiencia_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_deficiencia_outra_fem}&gt;=1</t>
+    <t>(prefixo)_DGE_SQE_B1_P13_2_tipologia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,16 +697,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -711,17 +726,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1022,16 +1066,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B84" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="86.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="198.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="199" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1079,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1111,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1127,7 +1171,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1151,7 +1195,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1175,7 +1219,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1199,7 +1243,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1215,7 +1259,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,146 +1835,159 @@
         <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B96" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A113">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
+      <formula>NOT(ISERROR(SEARCH("total",A113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD880054-5014-41EE-9087-F2F139C1ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF24AA-9266-4597-8DA4-D881454F6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,33 +646,6 @@
     <t>selected(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
   </si>
   <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_1')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_2')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_3')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_4')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_5')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_6')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_7')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_8')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_B1_P13_0_subsistema_modal}, 'sm_9')</t>
-  </si>
-  <si>
     <t>selected(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
   </si>
   <si>
@@ -683,6 +656,33 @@
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B1_P13_2_tipologia</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1155,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1259,7 +1259,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1907,7 +1907,7 @@
         <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1923,7 +1923,7 @@
         <v>196</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1931,7 +1931,7 @@
         <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>198</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1947,7 +1947,7 @@
         <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1955,7 +1955,7 @@
         <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1963,7 +1963,7 @@
         <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1971,15 +1971,15 @@
         <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" t="s">
         <v>219</v>
-      </c>
-      <c r="B113" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CF24AA-9266-4597-8DA4-D881454F6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE17674-4387-4FE6-AF8F-3341952B541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
   <si>
     <t>variavel</t>
   </si>
@@ -683,6 +683,177 @@
   </si>
   <si>
     <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B1_P6_comuna_distrito</t>
+  </si>
+  <si>
+    <t>not(
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '1') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '4') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '7') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '8') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '13') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '14') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '29') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '30') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '33') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '34') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '39') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '40') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '44') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '78') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '79') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '80') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '103') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '104') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '105') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '109') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '110') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '111') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '116') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '124') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '125') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '126') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '127') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '128') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '129') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '130') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '133') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '142') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '143') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '144') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '145') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '166') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '167') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '173') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '174') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '177') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '178') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '179') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '195') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '198') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '203') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '204') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '205') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '206') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '207') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '208') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '209') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '210') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '211') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '214') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '215') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '222') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '244') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '247') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '248') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '255') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '256') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '257') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '261') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '262') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '271') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '276') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '277') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '278') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '279') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '282') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '283') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '284') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '291') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '294') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '295') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '296') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '297') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '298') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '301') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '302') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '303') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '304') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '305') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '306') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '307') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '317') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '322') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '323') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '324') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '325') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '326') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '327') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '330') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '331') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '332') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '333') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '336') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '337') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '338') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '356') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '363') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '364') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '368') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '369') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '372') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '375') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '376') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '384') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '406') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '407') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '410') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '411') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '412') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '413') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '419') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '420') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '428') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '429') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '430') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '431') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '432') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '433') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '434') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '435') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '436') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '437') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '438') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '439') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '440') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '441') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '453') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '454') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '455') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '462') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '465') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '466') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '475') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '484') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '485') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '488') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '491') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '492') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '493') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '494') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '499') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '502') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '503') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '504') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '509') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '510') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '511') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '512') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '513') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '514') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '515') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '516') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '519') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '528') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '535') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '536') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '537') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '540') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '541') or
+    selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '542')
+)</t>
   </si>
 </sst>
 </file>
@@ -745,16 +916,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1066,10 +1253,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,10 +2169,23 @@
         <v>219</v>
       </c>
     </row>
+    <row r="114" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A113">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="total">
+      <formula>NOT(ISERROR(SEARCH("total",A113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A114">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
-      <formula>NOT(ISERROR(SEARCH("total",A113)))</formula>
+      <formula>NOT(ISERROR(SEARCH("total",A114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE17674-4387-4FE6-AF8F-3341952B541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A9478-8FB6-4F47-829B-6DF555066060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B2_P10_1_sistema_esvaziamento_transporte_residuo_liquido_especifique</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido}=8</t>
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B2_P11_1_actalmente_ha_agua_sabao_disponivel_instalacoes_lavagem_maos</t>
@@ -855,12 +852,15 @@
     selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '542')
 )</t>
   </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido}, '8')</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,28 +868,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -897,51 +885,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1255,8 +1209,8 @@
   </sheetPr>
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1342,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1358,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1366,828 +1320,818 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
         <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
         <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
         <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
         <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
         <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
         <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
         <v>53</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
         <v>55</v>
-      </c>
-      <c r="B35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
         <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
         <v>59</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
         <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
         <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
         <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" t="s">
         <v>67</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
         <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
         <v>73</v>
-      </c>
-      <c r="B44" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
         <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
         <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
         <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
         <v>81</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
         <v>83</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
         <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
         <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
         <v>91</v>
-      </c>
-      <c r="B53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
         <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
         <v>95</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
         <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
         <v>99</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
         <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
         <v>103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
         <v>105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
         <v>107</v>
-      </c>
-      <c r="B61" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
-      </c>
-      <c r="B62" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
         <v>111</v>
-      </c>
-      <c r="B63" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
         <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
         <v>115</v>
-      </c>
-      <c r="B65" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
         <v>117</v>
-      </c>
-      <c r="B66" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
         <v>119</v>
-      </c>
-      <c r="B67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
         <v>121</v>
-      </c>
-      <c r="B68" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
         <v>123</v>
-      </c>
-      <c r="B69" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
         <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
         <v>127</v>
-      </c>
-      <c r="B71" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" t="s">
         <v>129</v>
-      </c>
-      <c r="B72" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
         <v>131</v>
-      </c>
-      <c r="B73" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" t="s">
         <v>133</v>
-      </c>
-      <c r="B74" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" t="s">
         <v>135</v>
-      </c>
-      <c r="B75" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
         <v>137</v>
-      </c>
-      <c r="B76" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77" t="s">
         <v>139</v>
-      </c>
-      <c r="B77" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
         <v>141</v>
-      </c>
-      <c r="B78" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" t="s">
         <v>143</v>
-      </c>
-      <c r="B79" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" t="s">
         <v>145</v>
-      </c>
-      <c r="B80" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>146</v>
+      </c>
+      <c r="B81" t="s">
         <v>147</v>
-      </c>
-      <c r="B81" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" t="s">
         <v>149</v>
-      </c>
-      <c r="B82" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
         <v>151</v>
-      </c>
-      <c r="B83" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
         <v>153</v>
-      </c>
-      <c r="B84" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
         <v>155</v>
-      </c>
-      <c r="B85" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
         <v>157</v>
-      </c>
-      <c r="B86" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
         <v>159</v>
-      </c>
-      <c r="B87" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
         <v>161</v>
-      </c>
-      <c r="B88" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
         <v>163</v>
-      </c>
-      <c r="B89" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" t="s">
         <v>165</v>
-      </c>
-      <c r="B90" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
         <v>167</v>
-      </c>
-      <c r="B91" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" t="s">
         <v>169</v>
-      </c>
-      <c r="B92" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>170</v>
+      </c>
+      <c r="B93" t="s">
         <v>171</v>
-      </c>
-      <c r="B93" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>172</v>
+      </c>
+      <c r="B94" t="s">
         <v>173</v>
-      </c>
-      <c r="B94" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" t="s">
         <v>175</v>
-      </c>
-      <c r="B95" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>176</v>
+      </c>
+      <c r="B96" t="s">
         <v>177</v>
-      </c>
-      <c r="B96" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" t="s">
         <v>179</v>
-      </c>
-      <c r="B97" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>180</v>
+      </c>
+      <c r="B98" t="s">
         <v>181</v>
-      </c>
-      <c r="B98" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>182</v>
+      </c>
+      <c r="B99" t="s">
         <v>183</v>
-      </c>
-      <c r="B99" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>184</v>
+      </c>
+      <c r="B100" t="s">
         <v>185</v>
-      </c>
-      <c r="B100" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
         <v>187</v>
-      </c>
-      <c r="B101" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>188</v>
+      </c>
+      <c r="B102" t="s">
         <v>189</v>
-      </c>
-      <c r="B102" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" t="s">
         <v>191</v>
-      </c>
-      <c r="B103" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B113" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
+      <c r="B114" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>221</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A113">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="total">
-      <formula>NOT(ISERROR(SEARCH("total",A113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A114">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
-      <formula>NOT(ISERROR(SEARCH("total",A114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A9478-8FB6-4F47-829B-6DF555066060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B05EFB-BBD6-496F-931C-33C5066A22BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,9 +548,6 @@
   </si>
   <si>
     <t>(prefixo)_DEE_SQEE_B1_P4_418_descrever_opcao_outra_deficiencia</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_idade_nao_especificada_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_idade_nao_especificada_outra_fem}&gt;=1</t>
   </si>
   <si>
     <t>(prefixo)_DEE_SQEE_B1_P6_6_descrever_opcao_outro_turno_7_classe</t>
@@ -855,6 +852,9 @@
   <si>
     <t>selected(${(prefixo)_DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido}, '8')</t>
   </si>
+  <si>
+    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_deficiencia_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_deficiencia_outra_fem}&gt;=1</t>
+  </si>
 </sst>
 </file>
 
@@ -895,18 +895,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1209,8 +1198,8 @@
   </sheetPr>
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1264,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,7 +1285,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,7 +1301,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,7 +1309,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1392,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1400,7 +1389,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1976,159 +1965,159 @@
         <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
         <v>176</v>
-      </c>
-      <c r="B96" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" t="s">
         <v>178</v>
-      </c>
-      <c r="B97" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>179</v>
+      </c>
+      <c r="B98" t="s">
         <v>180</v>
-      </c>
-      <c r="B98" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>181</v>
+      </c>
+      <c r="B99" t="s">
         <v>182</v>
-      </c>
-      <c r="B99" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
         <v>184</v>
-      </c>
-      <c r="B100" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" t="s">
         <v>186</v>
-      </c>
-      <c r="B101" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" t="s">
         <v>188</v>
-      </c>
-      <c r="B102" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" t="s">
         <v>190</v>
-      </c>
-      <c r="B103" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>218</v>
+      </c>
+      <c r="B114" t="s">
         <v>219</v>
-      </c>
-      <c r="B114" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NEWDATA\Documents\OCHILI\Administrativo\Projectos\PAT2\Fase 2\ENTREGÁVEIS FASE 2 VERSÃO ACTUALIZADA\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B05EFB-BBD6-496F-931C-33C5066A22BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$B$103</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,16 +56,19 @@
     <t>${(prefixo)_DGE_SQE_B2_P1_28_outras_infraestrutura_suporte}&gt;=1</t>
   </si>
   <si>
-    <t>(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet</t>
+    <t>(prefixo)_DGE_SQE_B2_P3_4_tipo_conexao_internet</t>
   </si>
   <si>
     <t>${(prefixo)_DGE_SQE_B2_P3_2_escola_possui_acesso_internet}=1</t>
   </si>
   <si>
-    <t>(prefixo)_DGE_SQE_B2_P3_4_tipo_conexao_internet_outro_especifique</t>
-  </si>
-  <si>
-    <t>(prefixo)_DGE_SQE_B2_P3_5_num_computadores_conexao_internet</t>
+    <t>(prefixo)_DGE_SQE_B2_P3_5_tipo_conexao_internet_outro_especifique</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P3_4_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P3_3_num_computadores_conexao_internet</t>
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B2_P4_1_num_tablets_conexao_internet</t>
@@ -70,6 +80,9 @@
     <t>(prefixo)_DGE_SQE_B2_P4_3_tipo_conexao_internet_outro_especifique</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B2_P5_1_especifique_outro_equipamento</t>
   </si>
   <si>
@@ -79,9 +92,15 @@
     <t>(prefixo)_DGE_SQE_B2_P6_1_especifique_outro</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B2_P10_1_sistema_esvaziamento_transporte_residuo_liquido_especifique</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido}, '8')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B2_P11_1_actalmente_ha_agua_sabao_disponivel_instalacoes_lavagem_maos</t>
   </si>
   <si>
@@ -91,6 +110,9 @@
     <t>(prefixo)_DGE_SQE_B2_P12_1_principal_fonte_agua_outro_especifique</t>
   </si>
   <si>
+    <t>${(prefixo)_DGE_SQE_B2_P12_0_principal_fonte_agua_disponivel}=9</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B2_P12_5_indique_metodo_tratamento</t>
   </si>
   <si>
@@ -106,6 +128,9 @@
     <t>(prefixo)_DGE_SQE_B2_P14_1_principal_fonte_eliminacao_residuos_outro_especifique</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B2_P15_1_participa_programa_Especifique</t>
   </si>
   <si>
@@ -121,12 +146,21 @@
     <t>(prefixo)_DGE_SQE_B3_P2_1_estado_conservacao_salas_outro_especifique</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B3_P3_1_situacao_salas_aula_uso_escola_outro_especifique</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B3_P4_1_outro_especifique</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
+  </si>
+  <si>
     <t>(prefixo)_DGE_SQE_B3_P7_1_indique_salas_anexas</t>
   </si>
   <si>
@@ -550,6 +584,9 @@
     <t>(prefixo)_DEE_SQEE_B1_P4_418_descrever_opcao_outra_deficiencia</t>
   </si>
   <si>
+    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_deficiencia_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_deficiencia_outra_fem}&gt;=1</t>
+  </si>
+  <si>
     <t>(prefixo)_DEE_SQEE_B1_P6_6_descrever_opcao_outro_turno_7_classe</t>
   </si>
   <si>
@@ -598,85 +635,61 @@
     <t>${(prefixo)_DEE_SQEE_B1_P8_415_total_masc_deficiencia_outra}&gt;=1or${(prefixo)_DEE_SQEE_B1_P8_416_total_fem_deficiencia_outra}&gt;=1</t>
   </si>
   <si>
-    <t>${(prefixo)_DGE_SQE_B2_P12_0_principal_fonte_agua_disponivel}=9</t>
-  </si>
-  <si>
     <t>qepe</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')</t>
+  </si>
+  <si>
     <t>qep</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
     <t>q1cg</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')</t>
+  </si>
+  <si>
     <t>q2cg</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')</t>
+  </si>
+  <si>
     <t>q1cp</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')</t>
+  </si>
+  <si>
     <t>q2cp</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')</t>
+  </si>
+  <si>
     <t>q2cfp</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')</t>
+  </si>
+  <si>
     <t>qea</t>
   </si>
   <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')</t>
+  </si>
+  <si>
     <t>qee</t>
   </si>
   <si>
-    <t>selected(${(prefixo)_DGE_SQE_B2_P6_0_acessibilidade_existente_escola_condicoes_acessibilidade}, '9')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B2_P14_0_formas_eliminacao_residuos_escola}, '5')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B3_P2_0_indique_estado_conservacao_salas_aula_fucionamento}, '5')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B3_P3_0_situacao_salas_de_aula_uso_escola}, '4')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B2_P4_2_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B2_P3_3_tipo_conexao_internet}, '7')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B3_P4_0_locais_funcionamento_salas_aula}, '6')</t>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B1_P13_2_tipologia</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_7')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_8')</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_9')</t>
   </si>
   <si>
     <t>(prefixo)_DGE_SQE_B1_P6_comuna_distrito</t>
@@ -849,35 +862,372 @@
     selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '542')
 )</t>
   </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B2_P10_0_sistema_esvaziamento_transporte_residuo_liquido}, '8')</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DEE_SQEE_B1_P4_414_num_matriculas_total_geral_de_matriculas_deficiencia_outra_masc}&gt;=1or${(prefixo)_DEE_SQEE_B1_P4_415_num_matriculas_total_geral_de_matriculas_deficiencia_outra_fem}&gt;=1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -885,24 +1235,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1187,28 +1823,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B87" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="79.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="199" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.4380952380952" customWidth="1"/>
+    <col min="2" max="2" width="199" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="18.75" customHeight="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="18.75" customHeight="1" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1224,7 +1859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="18.75" customHeight="1" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="18.75" customHeight="1" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1240,7 +1875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="18.75" customHeight="1" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1248,879 +1883,880 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="18.75" customHeight="1" spans="1:2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="18.75" customHeight="1" spans="1:2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="18.75" customHeight="1" spans="1:2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="18.75" customHeight="1" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A82" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A84" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A85" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A86" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A87" t="s">
+        <v>167</v>
+      </c>
+      <c r="B87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A92" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A93" t="s">
+        <v>179</v>
+      </c>
+      <c r="B93" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A95" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A96" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A98" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A99" t="s">
+        <v>191</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A100" t="s">
+        <v>193</v>
+      </c>
+      <c r="B100" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A101" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A102" t="s">
+        <v>197</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B106" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>84</v>
-      </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>124</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>134</v>
-      </c>
-      <c r="B75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>146</v>
-      </c>
-      <c r="B81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>148</v>
-      </c>
-      <c r="B82" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>152</v>
-      </c>
-      <c r="B84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>156</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>158</v>
-      </c>
-      <c r="B87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>160</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>162</v>
-      </c>
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>166</v>
-      </c>
-      <c r="B91" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>168</v>
-      </c>
-      <c r="B92" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>170</v>
-      </c>
-      <c r="B93" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>174</v>
-      </c>
-      <c r="B95" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>175</v>
-      </c>
-      <c r="B96" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>177</v>
-      </c>
-      <c r="B97" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>179</v>
-      </c>
-      <c r="B98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>181</v>
-      </c>
-      <c r="B99" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>183</v>
-      </c>
-      <c r="B100" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>185</v>
-      </c>
-      <c r="B101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>187</v>
-      </c>
-      <c r="B102" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>192</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="B107" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>193</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="B108" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>194</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>195</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="B109" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>196</v>
-      </c>
-      <c r="B108" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>197</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>198</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>199</v>
       </c>
       <c r="B111" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B112" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DBCE8-3A90-47E5-BE65-682833B8DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="246">
   <si>
     <t>variavel</t>
   </si>
@@ -862,18 +866,84 @@
     selected(${(prefixo)_DGE_SQE_B1_P5_municipio}, '542')
 )</t>
   </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B1_P12_IV_0_nome_director_tecnico</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_1') or selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_2')selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_3')</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B1_P12_V_0_nome_coordenador_pedagogico</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_0_sala_actividades_3_anos</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_1_sala_actividades_4_5_anos</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_2_sala_actividades_6_anos</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_3_sala_reposo_criancas</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_6_sala_informatica_basica</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_7_laboratorio_informatica_basica</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_8_laboratorio_informatica_multimedia</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_11_sala_aula_teorica_uso_iniciacao</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_12_sala_aula_teorica_uso_primario</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_13_sala_aula_teorica_uso_I_ciclo</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_14_sala_aula_teorica_uso_II_ciclo</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_16_sala_desenho</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_17_sala_oficinas</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_22_laboratorio_fisica</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_23_laboratorio_quimica</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_24_laboratorio_biologia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6') </t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_3') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_5') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_4') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_6') </t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B4_P4_0_oferece_merenda_alimentacao_alunos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,325 +952,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1210,24 +980,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1237,308 +1001,94 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1823,27 +1373,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="79.4380952380952" customWidth="1"/>
-    <col min="2" max="2" width="199" customWidth="1"/>
+    <col min="1" max="1" width="93.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="214.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1859,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:2">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:2">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1875,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:2">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1883,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:2">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1891,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:2">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1899,7 +1450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:2">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:2">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:2">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:2">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1931,7 +1482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:2">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1939,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:2">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1947,7 +1498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:2">
+    <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1955,7 +1506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:2">
+    <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1963,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:2">
+    <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1971,7 +1522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:2">
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +1530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:2">
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1987,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:2">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1995,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:2">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +1554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:2">
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2011,7 +1562,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:2">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2019,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:2">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2027,7 +1578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1" spans="1:2">
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2035,7 +1586,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:2">
+    <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -2043,7 +1594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" spans="1:2">
+    <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -2051,7 +1602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:2">
+    <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2059,7 +1610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:2">
+    <row r="28" spans="1:2" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2067,7 +1618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:2">
+    <row r="29" spans="1:2" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -2075,7 +1626,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:2">
+    <row r="30" spans="1:2" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -2083,7 +1634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" spans="1:2">
+    <row r="31" spans="1:2" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2091,7 +1642,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1" spans="1:2">
+    <row r="32" spans="1:2" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -2099,7 +1650,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1" spans="1:2">
+    <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -2107,7 +1658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1" spans="1:2">
+    <row r="34" spans="1:2" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2115,7 +1666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1" spans="1:2">
+    <row r="35" spans="1:2" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2123,7 +1674,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1" spans="1:2">
+    <row r="36" spans="1:2" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -2131,7 +1682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1" spans="1:2">
+    <row r="37" spans="1:2" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -2139,7 +1690,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1" spans="1:2">
+    <row r="38" spans="1:2" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2147,7 +1698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1" spans="1:2">
+    <row r="39" spans="1:2" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -2155,7 +1706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" ht="18.75" customHeight="1" spans="1:2">
+    <row r="40" spans="1:2" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2163,7 +1714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1" spans="1:2">
+    <row r="41" spans="1:2" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2171,7 +1722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1" spans="1:2">
+    <row r="42" spans="1:2" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -2179,7 +1730,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1" spans="1:2">
+    <row r="43" spans="1:2" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2187,7 +1738,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1" spans="1:2">
+    <row r="44" spans="1:2" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2195,7 +1746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1" spans="1:2">
+    <row r="45" spans="1:2" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -2203,7 +1754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1" spans="1:2">
+    <row r="46" spans="1:2" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -2211,7 +1762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" ht="18.75" customHeight="1" spans="1:2">
+    <row r="47" spans="1:2" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -2219,7 +1770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1" spans="1:2">
+    <row r="48" spans="1:2" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -2227,7 +1778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1" spans="1:2">
+    <row r="49" spans="1:2" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2235,7 +1786,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:2">
+    <row r="50" spans="1:2" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -2243,7 +1794,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:2">
+    <row r="51" spans="1:2" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -2251,7 +1802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1" spans="1:2">
+    <row r="52" spans="1:2" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2259,7 +1810,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1" spans="1:2">
+    <row r="53" spans="1:2" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -2267,7 +1818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" ht="18.75" customHeight="1" spans="1:2">
+    <row r="54" spans="1:2" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -2275,7 +1826,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" ht="18.75" customHeight="1" spans="1:2">
+    <row r="55" spans="1:2" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>103</v>
       </c>
@@ -2283,7 +1834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1" spans="1:2">
+    <row r="56" spans="1:2" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -2291,7 +1842,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" ht="18.75" customHeight="1" spans="1:2">
+    <row r="57" spans="1:2" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -2299,7 +1850,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" ht="18.75" customHeight="1" spans="1:2">
+    <row r="58" spans="1:2" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -2307,7 +1858,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" ht="18.75" customHeight="1" spans="1:2">
+    <row r="59" spans="1:2" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -2315,7 +1866,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" ht="18.75" customHeight="1" spans="1:2">
+    <row r="60" spans="1:2" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>113</v>
       </c>
@@ -2323,7 +1874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" ht="18.75" customHeight="1" spans="1:2">
+    <row r="61" spans="1:2" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -2331,7 +1882,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1" spans="1:2">
+    <row r="62" spans="1:2" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>117</v>
       </c>
@@ -2339,7 +1890,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1" spans="1:2">
+    <row r="63" spans="1:2" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -2347,7 +1898,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" ht="18.75" customHeight="1" spans="1:2">
+    <row r="64" spans="1:2" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>121</v>
       </c>
@@ -2355,7 +1906,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="65" ht="18.75" customHeight="1" spans="1:2">
+    <row r="65" spans="1:2" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -2363,7 +1914,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="66" ht="18.75" customHeight="1" spans="1:2">
+    <row r="66" spans="1:2" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2371,7 +1922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" ht="18.75" customHeight="1" spans="1:2">
+    <row r="67" spans="1:2" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -2379,7 +1930,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" ht="18.75" customHeight="1" spans="1:2">
+    <row r="68" spans="1:2" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2387,7 +1938,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="69" ht="18.75" customHeight="1" spans="1:2">
+    <row r="69" spans="1:2" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>131</v>
       </c>
@@ -2395,7 +1946,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" ht="18.75" customHeight="1" spans="1:2">
+    <row r="70" spans="1:2" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -2403,7 +1954,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="71" ht="18.75" customHeight="1" spans="1:2">
+    <row r="71" spans="1:2" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -2411,7 +1962,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" ht="18.75" customHeight="1" spans="1:2">
+    <row r="72" spans="1:2" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -2419,7 +1970,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" ht="18.75" customHeight="1" spans="1:2">
+    <row r="73" spans="1:2" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>139</v>
       </c>
@@ -2427,7 +1978,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" ht="18.75" customHeight="1" spans="1:2">
+    <row r="74" spans="1:2" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -2435,7 +1986,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="75" ht="18.75" customHeight="1" spans="1:2">
+    <row r="75" spans="1:2" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -2443,7 +1994,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" ht="18.75" customHeight="1" spans="1:2">
+    <row r="76" spans="1:2" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>145</v>
       </c>
@@ -2451,7 +2002,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" ht="18.75" customHeight="1" spans="1:2">
+    <row r="77" spans="1:2" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>147</v>
       </c>
@@ -2459,7 +2010,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" ht="18.75" customHeight="1" spans="1:2">
+    <row r="78" spans="1:2" ht="15" customHeight="1">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -2467,7 +2018,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="79" ht="18.75" customHeight="1" spans="1:2">
+    <row r="79" spans="1:2" ht="15" customHeight="1">
       <c r="A79" t="s">
         <v>151</v>
       </c>
@@ -2475,7 +2026,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" ht="18.75" customHeight="1" spans="1:2">
+    <row r="80" spans="1:2" ht="15" customHeight="1">
       <c r="A80" t="s">
         <v>153</v>
       </c>
@@ -2483,7 +2034,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" ht="18.75" customHeight="1" spans="1:2">
+    <row r="81" spans="1:2" ht="15" customHeight="1">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -2491,7 +2042,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="82" ht="18.75" customHeight="1" spans="1:2">
+    <row r="82" spans="1:2" ht="15" customHeight="1">
       <c r="A82" t="s">
         <v>157</v>
       </c>
@@ -2499,7 +2050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" ht="18.75" customHeight="1" spans="1:2">
+    <row r="83" spans="1:2" ht="15" customHeight="1">
       <c r="A83" t="s">
         <v>159</v>
       </c>
@@ -2507,7 +2058,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="84" ht="18.75" customHeight="1" spans="1:2">
+    <row r="84" spans="1:2" ht="15" customHeight="1">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -2515,7 +2066,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="85" ht="18.75" customHeight="1" spans="1:2">
+    <row r="85" spans="1:2" ht="15" customHeight="1">
       <c r="A85" t="s">
         <v>163</v>
       </c>
@@ -2523,7 +2074,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" ht="18.75" customHeight="1" spans="1:2">
+    <row r="86" spans="1:2" ht="15" customHeight="1">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -2531,7 +2082,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="87" ht="18.75" customHeight="1" spans="1:2">
+    <row r="87" spans="1:2" ht="15" customHeight="1">
       <c r="A87" t="s">
         <v>167</v>
       </c>
@@ -2539,7 +2090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" ht="18.75" customHeight="1" spans="1:2">
+    <row r="88" spans="1:2" ht="15" customHeight="1">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -2547,7 +2098,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" ht="18.75" customHeight="1" spans="1:2">
+    <row r="89" spans="1:2" ht="15" customHeight="1">
       <c r="A89" t="s">
         <v>171</v>
       </c>
@@ -2555,7 +2106,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" ht="18.75" customHeight="1" spans="1:2">
+    <row r="90" spans="1:2" ht="15" customHeight="1">
       <c r="A90" t="s">
         <v>173</v>
       </c>
@@ -2563,7 +2114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="91" ht="18.75" customHeight="1" spans="1:2">
+    <row r="91" spans="1:2" ht="15" customHeight="1">
       <c r="A91" t="s">
         <v>175</v>
       </c>
@@ -2571,7 +2122,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" ht="18.75" customHeight="1" spans="1:2">
+    <row r="92" spans="1:2" ht="15" customHeight="1">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -2579,7 +2130,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" ht="18.75" customHeight="1" spans="1:2">
+    <row r="93" spans="1:2" ht="15" customHeight="1">
       <c r="A93" t="s">
         <v>179</v>
       </c>
@@ -2587,7 +2138,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" ht="18.75" customHeight="1" spans="1:2">
+    <row r="94" spans="1:2" ht="15" customHeight="1">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -2595,7 +2146,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" ht="18.75" customHeight="1" spans="1:2">
+    <row r="95" spans="1:2" ht="15" customHeight="1">
       <c r="A95" t="s">
         <v>183</v>
       </c>
@@ -2603,7 +2154,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="96" ht="18.75" customHeight="1" spans="1:2">
+    <row r="96" spans="1:2" ht="15" customHeight="1">
       <c r="A96" t="s">
         <v>185</v>
       </c>
@@ -2611,7 +2162,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="97" ht="18.75" customHeight="1" spans="1:2">
+    <row r="97" spans="1:2" ht="15" customHeight="1">
       <c r="A97" t="s">
         <v>187</v>
       </c>
@@ -2619,7 +2170,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="98" ht="18.75" customHeight="1" spans="1:2">
+    <row r="98" spans="1:2" ht="15" customHeight="1">
       <c r="A98" t="s">
         <v>189</v>
       </c>
@@ -2627,7 +2178,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" ht="18.75" customHeight="1" spans="1:2">
+    <row r="99" spans="1:2" ht="15" customHeight="1">
       <c r="A99" t="s">
         <v>191</v>
       </c>
@@ -2635,7 +2186,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="100" ht="18.75" customHeight="1" spans="1:2">
+    <row r="100" spans="1:2" ht="15" customHeight="1">
       <c r="A100" t="s">
         <v>193</v>
       </c>
@@ -2643,7 +2194,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="101" ht="18.75" customHeight="1" spans="1:2">
+    <row r="101" spans="1:2" ht="15" customHeight="1">
       <c r="A101" t="s">
         <v>195</v>
       </c>
@@ -2651,7 +2202,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" ht="18.75" customHeight="1" spans="1:2">
+    <row r="102" spans="1:2" ht="15" customHeight="1">
       <c r="A102" t="s">
         <v>197</v>
       </c>
@@ -2659,7 +2210,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" ht="18.75" customHeight="1" spans="1:2">
+    <row r="103" spans="1:2" ht="15" customHeight="1">
       <c r="A103" t="s">
         <v>199</v>
       </c>
@@ -2667,7 +2218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="15" customHeight="1">
       <c r="A104" t="s">
         <v>201</v>
       </c>
@@ -2675,7 +2226,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" ht="15" customHeight="1">
       <c r="A105" t="s">
         <v>203</v>
       </c>
@@ -2683,7 +2234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="15" customHeight="1">
       <c r="A106" t="s">
         <v>205</v>
       </c>
@@ -2691,7 +2242,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" ht="15" customHeight="1">
       <c r="A107" t="s">
         <v>207</v>
       </c>
@@ -2699,7 +2250,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="15" customHeight="1">
       <c r="A108" t="s">
         <v>209</v>
       </c>
@@ -2707,7 +2258,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" ht="15" customHeight="1">
       <c r="A109" t="s">
         <v>211</v>
       </c>
@@ -2715,7 +2266,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" ht="15" customHeight="1">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -2723,7 +2274,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" ht="15" customHeight="1">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -2731,7 +2282,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" ht="15" customHeight="1">
       <c r="A112" t="s">
         <v>217</v>
       </c>
@@ -2739,24 +2290,190 @@
         <v>218</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" ht="15" customHeight="1">
       <c r="A113" t="s">
         <v>219</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:2" ht="15" customHeight="1">
+      <c r="A114" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>221</v>
       </c>
     </row>
+    <row r="115" spans="1:2" ht="15" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" customHeight="1">
+      <c r="A117" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" customHeight="1">
+      <c r="A118" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" customHeight="1">
+      <c r="A119" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" customHeight="1">
+      <c r="A120" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" customHeight="1">
+      <c r="A121" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" customHeight="1">
+      <c r="A122" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" customHeight="1">
+      <c r="A123" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" customHeight="1">
+      <c r="A124" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" customHeight="1">
+      <c r="A125" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" customHeight="1">
+      <c r="A126" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" customHeight="1">
+      <c r="A127" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1">
+      <c r="A128" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" customHeight="1">
+      <c r="A129" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" customHeight="1">
+      <c r="A130" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" customHeight="1">
+      <c r="A131" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" customHeight="1">
+      <c r="A132" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" customHeight="1">
+      <c r="A133" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A115">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="total">
+      <formula>NOT(ISERROR(SEARCH("total",A115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115:B116">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="total">
+      <formula>NOT(ISERROR(SEARCH("total",B115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A116">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
+      <formula>NOT(ISERROR(SEARCH("total",A116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07DBCE8-3A90-47E5-BE65-682833B8DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9C974-C540-4672-B477-F79CF0BCF0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,15 +867,6 @@
 )</t>
   </si>
   <si>
-    <t>(prefixo)_DGE_SQE_B1_P12_IV_0_nome_director_tecnico</t>
-  </si>
-  <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_1') or selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_2')selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_3')</t>
-  </si>
-  <si>
-    <t>(prefixo)_DGE_SQE_B1_P12_V_0_nome_coordenador_pedagogico</t>
-  </si>
-  <si>
     <t>(prefixo)_DGE_SQE_B2_P1_0_sala_actividades_3_anos</t>
   </si>
   <si>
@@ -937,6 +928,15 @@
   </si>
   <si>
     <t>QEPE_DGE_SQE_B4_P4_0_oferece_merenda_alimentacao_alunos</t>
+  </si>
+  <si>
+    <t>selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_1') or selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_2') or selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_3')</t>
+  </si>
+  <si>
+    <t>pessoal_direcao_escola_subdirector_director_tecnico</t>
+  </si>
+  <si>
+    <t>pessoal_direcao_escola_coordenador_pedagógico</t>
   </si>
 </sst>
 </file>
@@ -1018,11 +1018,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1384,8 +1381,8 @@
   </sheetPr>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2294,165 +2291,165 @@
       <c r="A113" t="s">
         <v>219</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" customHeight="1">
+      <c r="A116" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" customHeight="1">
+      <c r="A117" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B117" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" customHeight="1">
+      <c r="A118" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" ht="15" customHeight="1">
-      <c r="A116" s="1" t="s">
+      <c r="B118" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" customHeight="1">
+      <c r="A119" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15" customHeight="1">
-      <c r="A117" s="6" t="s">
+      <c r="B119" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" customHeight="1">
+      <c r="A120" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15" customHeight="1">
-      <c r="A118" s="6" t="s">
+    <row r="121" spans="1:2" ht="15" customHeight="1">
+      <c r="A121" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B121" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" s="6" t="s">
+    <row r="125" spans="1:2" ht="15" customHeight="1">
+      <c r="A125" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15" customHeight="1">
-      <c r="A123" s="6" t="s">
+      <c r="B125" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" customHeight="1">
+      <c r="A126" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15" customHeight="1">
-      <c r="A124" s="6" t="s">
+      <c r="B126" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" customHeight="1">
+      <c r="A127" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15" customHeight="1">
-      <c r="A125" s="6" t="s">
+      <c r="B127" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" customHeight="1">
+      <c r="A128" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15" customHeight="1">
-      <c r="A126" s="6" t="s">
+      <c r="B128" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" customHeight="1">
+      <c r="A129" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15" customHeight="1">
-      <c r="A127" s="6" t="s">
+      <c r="B129" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" customHeight="1">
+      <c r="A130" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B130" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" customHeight="1">
+      <c r="A131" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" customHeight="1">
+      <c r="A132" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" customHeight="1">
+      <c r="A133" s="4" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15" customHeight="1">
-      <c r="A128" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15" customHeight="1">
-      <c r="A129" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15" customHeight="1">
-      <c r="A130" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15" customHeight="1">
-      <c r="A131" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15" customHeight="1">
-      <c r="A132" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15" customHeight="1">
-      <c r="A133" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="B133" t="s">
         <v>204</v>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9C974-C540-4672-B477-F79CF0BCF0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD31F51-CDCB-47BF-ABF3-76E475C33695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
   <si>
     <t>variavel</t>
   </si>
@@ -930,13 +930,10 @@
     <t>QEPE_DGE_SQE_B4_P4_0_oferece_merenda_alimentacao_alunos</t>
   </si>
   <si>
-    <t>selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_1') or selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_2') or selected(${(prefixo)_DGE_SQE_B1_P13_1_classes_estapas}, 'classe_3')</t>
-  </si>
-  <si>
     <t>pessoal_direcao_escola_subdirector_director_tecnico</t>
   </si>
   <si>
-    <t>pessoal_direcao_escola_coordenador_pedagógico</t>
+    <t>pessoal_direcao_escola_subdirector_administrativo</t>
   </si>
 </sst>
 </file>
@@ -965,7 +962,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -975,12 +972,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,16 +1009,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1381,8 +1369,8 @@
   </sheetPr>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2299,7 +2287,7 @@
       <c r="A114" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2307,20 +2295,20 @@
       <c r="A115" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>243</v>
+      <c r="B115" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1">
       <c r="A116" t="s">
-        <v>245</v>
-      </c>
-      <c r="B116" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="B116" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="117" spans="1:2" ht="15" customHeight="1">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -2328,7 +2316,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -2336,7 +2324,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="4" t="s">
         <v>224</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -2344,7 +2332,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="4" t="s">
         <v>225</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -2352,7 +2340,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="4" t="s">
         <v>226</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -2360,7 +2348,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -2368,7 +2356,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="4" t="s">
         <v>228</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -2376,7 +2364,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" customHeight="1">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="4" t="s">
         <v>229</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -2384,7 +2372,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>230</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -2392,7 +2380,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="4" t="s">
         <v>231</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -2400,7 +2388,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" customHeight="1">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="4" t="s">
         <v>232</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -2408,7 +2396,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -2416,7 +2404,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="4" t="s">
         <v>234</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -2424,7 +2412,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -2432,7 +2420,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="4" t="s">
         <v>236</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -2440,7 +2428,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="4" t="s">
         <v>237</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -2448,7 +2436,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B133" t="s">
@@ -2459,11 +2447,6 @@
   <conditionalFormatting sqref="A115">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="total">
       <formula>NOT(ISERROR(SEARCH("total",A115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B115:B116">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="total">
-      <formula>NOT(ISERROR(SEARCH("total",B115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A116">

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD31F51-CDCB-47BF-ABF3-76E475C33695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A005A1C-750E-4155-9432-9BEE4610D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
-  <si>
-    <t>variavel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="246">
   <si>
     <t>relevante</t>
   </si>
@@ -934,6 +931,12 @@
   </si>
   <si>
     <t>pessoal_direcao_escola_subdirector_administrativo</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>pessoal_direcao_escola_coordenador_pedagogico</t>
   </si>
 </sst>
 </file>
@@ -1367,10 +1370,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:A116"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1380,1067 +1383,1083 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1">
       <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1">
       <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
         <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1">
       <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1">
       <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1">
       <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1">
       <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
         <v>71</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1">
       <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
         <v>73</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1">
       <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>75</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1">
       <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
         <v>77</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1">
       <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
         <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1">
       <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" t="s">
         <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1">
       <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1">
       <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
         <v>87</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1">
       <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
         <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1">
       <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>91</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1">
       <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
         <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1">
       <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>95</v>
-      </c>
-      <c r="B51" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1">
       <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
         <v>99</v>
-      </c>
-      <c r="B53" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1">
       <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1">
       <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1">
       <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" t="s">
         <v>105</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1">
       <c r="A57" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" t="s">
         <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1">
       <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
         <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1">
       <c r="A59" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
         <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1">
       <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
         <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1">
       <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
         <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1">
       <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
         <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1">
       <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
         <v>119</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1">
       <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
         <v>121</v>
-      </c>
-      <c r="B64" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1">
       <c r="A65" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" t="s">
         <v>123</v>
-      </c>
-      <c r="B65" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1">
       <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
         <v>125</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1">
       <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
         <v>127</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1">
       <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
         <v>129</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1">
       <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" t="s">
         <v>131</v>
-      </c>
-      <c r="B69" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1">
       <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
         <v>133</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1">
       <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" t="s">
         <v>135</v>
-      </c>
-      <c r="B71" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1">
       <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
         <v>137</v>
-      </c>
-      <c r="B72" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1">
       <c r="A73" t="s">
+        <v>138</v>
+      </c>
+      <c r="B73" t="s">
         <v>139</v>
-      </c>
-      <c r="B73" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1">
       <c r="A74" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" t="s">
         <v>141</v>
-      </c>
-      <c r="B74" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1">
       <c r="A75" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" t="s">
         <v>143</v>
-      </c>
-      <c r="B75" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1">
       <c r="A76" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" t="s">
         <v>145</v>
-      </c>
-      <c r="B76" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1">
       <c r="A77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" t="s">
         <v>147</v>
-      </c>
-      <c r="B77" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1">
       <c r="A78" t="s">
+        <v>148</v>
+      </c>
+      <c r="B78" t="s">
         <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1">
       <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
         <v>151</v>
-      </c>
-      <c r="B79" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1">
       <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
         <v>153</v>
-      </c>
-      <c r="B80" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1">
       <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
         <v>155</v>
-      </c>
-      <c r="B81" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1">
       <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
         <v>157</v>
-      </c>
-      <c r="B82" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1">
       <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
         <v>159</v>
-      </c>
-      <c r="B83" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1">
       <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
         <v>161</v>
-      </c>
-      <c r="B84" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1">
       <c r="A85" t="s">
+        <v>162</v>
+      </c>
+      <c r="B85" t="s">
         <v>163</v>
-      </c>
-      <c r="B85" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1">
       <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
         <v>165</v>
-      </c>
-      <c r="B86" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1">
       <c r="A87" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" t="s">
         <v>167</v>
-      </c>
-      <c r="B87" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1">
       <c r="A88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" t="s">
         <v>169</v>
-      </c>
-      <c r="B88" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1">
       <c r="A89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B89" t="s">
         <v>171</v>
-      </c>
-      <c r="B89" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1">
       <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
         <v>173</v>
-      </c>
-      <c r="B90" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1">
       <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91" t="s">
         <v>175</v>
-      </c>
-      <c r="B91" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1">
       <c r="A92" t="s">
+        <v>176</v>
+      </c>
+      <c r="B92" t="s">
         <v>177</v>
-      </c>
-      <c r="B92" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1">
       <c r="A93" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" t="s">
         <v>179</v>
-      </c>
-      <c r="B93" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1">
       <c r="A94" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" t="s">
         <v>181</v>
-      </c>
-      <c r="B94" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1">
       <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
         <v>183</v>
-      </c>
-      <c r="B95" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1">
       <c r="A96" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" t="s">
         <v>185</v>
-      </c>
-      <c r="B96" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" customHeight="1">
       <c r="A97" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" t="s">
         <v>187</v>
-      </c>
-      <c r="B97" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1">
       <c r="A98" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" t="s">
         <v>189</v>
-      </c>
-      <c r="B98" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1">
       <c r="A99" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
         <v>191</v>
-      </c>
-      <c r="B99" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1">
       <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
         <v>193</v>
-      </c>
-      <c r="B100" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1">
       <c r="A101" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" t="s">
         <v>195</v>
-      </c>
-      <c r="B101" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1">
       <c r="A102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" t="s">
         <v>197</v>
-      </c>
-      <c r="B102" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1">
       <c r="A103" t="s">
+        <v>198</v>
+      </c>
+      <c r="B103" t="s">
         <v>199</v>
-      </c>
-      <c r="B103" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1">
       <c r="A104" t="s">
+        <v>200</v>
+      </c>
+      <c r="B104" t="s">
         <v>201</v>
-      </c>
-      <c r="B104" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" customHeight="1">
       <c r="A105" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" t="s">
         <v>203</v>
-      </c>
-      <c r="B105" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1">
       <c r="A106" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
         <v>205</v>
-      </c>
-      <c r="B106" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1">
       <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
         <v>207</v>
-      </c>
-      <c r="B107" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1">
       <c r="A108" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
         <v>209</v>
-      </c>
-      <c r="B108" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1">
       <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109" t="s">
         <v>211</v>
-      </c>
-      <c r="B109" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" customHeight="1">
       <c r="A110" t="s">
+        <v>212</v>
+      </c>
+      <c r="B110" t="s">
         <v>213</v>
-      </c>
-      <c r="B110" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" customHeight="1">
       <c r="A111" t="s">
+        <v>214</v>
+      </c>
+      <c r="B111" t="s">
         <v>215</v>
-      </c>
-      <c r="B111" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1">
       <c r="A112" t="s">
+        <v>216</v>
+      </c>
+      <c r="B112" t="s">
         <v>217</v>
-      </c>
-      <c r="B112" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1">
       <c r="A114" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1">
       <c r="A119" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1">
       <c r="A120" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1">
       <c r="A126" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B133" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" customHeight="1">
+      <c r="A134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" customHeight="1">
+      <c r="A135" t="s">
         <v>242</v>
       </c>
-      <c r="B133" t="s">
-        <v>204</v>
+      <c r="B135" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A005A1C-750E-4155-9432-9BEE4610D958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD4D48F-7CC0-45EA-8565-DC920707CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
   <si>
     <t>relevante</t>
   </si>
@@ -934,9 +934,6 @@
   </si>
   <si>
     <t>et</t>
-  </si>
-  <si>
-    <t>pessoal_direcao_escola_coordenador_pedagogico</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1367,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+      <selection activeCell="A134" sqref="A134:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2444,22 +2441,6 @@
       </c>
       <c r="B133" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15" customHeight="1">
-      <c r="A134" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15" customHeight="1">
-      <c r="A135" t="s">
-        <v>242</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD4D48F-7CC0-45EA-8565-DC920707CA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E16782-20C9-441E-BCA6-3E4C2233675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,19 +933,26 @@
     <t>pessoal_direcao_escola_subdirector_administrativo</t>
   </si>
   <si>
-    <t>et</t>
+    <t>variavel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,53 +1016,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1369,9 +1347,7 @@
   </sheetPr>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134:XFD135"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1380,7 +1356,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B1" t="s">
@@ -2444,14 +2420,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A115">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="total">
+  <conditionalFormatting sqref="A115:A116">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
       <formula>NOT(ISERROR(SEARCH("total",A115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A116">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
-      <formula>NOT(ISERROR(SEARCH("total",A116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E16782-20C9-441E-BCA6-3E4C2233675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B9DDBE-3716-4779-BC60-7021AB2A09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>pessoal_direcao_escola_subdirector_director_tecnico</t>
   </si>
   <si>
-    <t>pessoal_direcao_escola_subdirector_administrativo</t>
-  </si>
-  <si>
     <t>variavel</t>
+  </si>
+  <si>
+    <t>pessoal_direcao_escola_coordenador_pedagógico</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,9 @@
   </sheetPr>
   <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1357,7 +1359,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2269,7 +2271,7 @@
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1">
       <c r="A115" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B115" t="s">
         <v>201</v>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B9DDBE-3716-4779-BC60-7021AB2A09DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E5AD2D-D38F-4D6F-A6DF-C9AB67F23967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="248">
   <si>
     <t>relevante</t>
   </si>
@@ -924,9 +924,6 @@
     <t>selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_1') or selected(${(prefixo)_DGE_SQE_B1_P13_0_subsistema_modal}, 'sm_2')</t>
   </si>
   <si>
-    <t>QEPE_DGE_SQE_B4_P4_0_oferece_merenda_alimentacao_alunos</t>
-  </si>
-  <si>
     <t>pessoal_direcao_escola_subdirector_director_tecnico</t>
   </si>
   <si>
@@ -934,6 +931,18 @@
   </si>
   <si>
     <t>pessoal_direcao_escola_coordenador_pedagógico</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B4_P4_0_oferece_merenda_alimentacao_alunos</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_29_quantas_outras_infraestrutura_suporte</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_30_outras_especifique</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P1_28_outras_infraestrutura_suporte}=1</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,6 +994,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1029,6 +1044,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1345,10 +1363,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1359,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2271,7 +2289,7 @@
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1">
       <c r="A115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B115" t="s">
         <v>201</v>
@@ -2279,7 +2297,7 @@
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1">
       <c r="A116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B116" t="s">
         <v>201</v>
@@ -2415,10 +2433,26 @@
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B133" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" customHeight="1">
+      <c r="A134" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" customHeight="1">
+      <c r="A135" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E5AD2D-D38F-4D6F-A6DF-C9AB67F23967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FBB2A-B03F-4EF4-9334-6510B00B509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="251">
   <si>
     <t>relevante</t>
   </si>
@@ -939,22 +939,38 @@
     <t>(prefixo)_DGE_SQE_B2_P1_29_quantas_outras_infraestrutura_suporte</t>
   </si>
   <si>
-    <t>(prefixo)_DGE_SQE_B2_P1_30_outras_especifique</t>
-  </si>
-  <si>
     <t>${(prefixo)_DGE_SQE_B2_P1_28_outras_infraestrutura_suporte}=1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_30_outras_especifique1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P1_31_outras_especifique2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${(prefixo)_DGE_SQE_B2_P1_29_quantas_outras_infraestrutura_suporte}&gt;=1 </t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B2_P1_31_outras_especifique2}&gt;=2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,22 +1047,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,10 +1380,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B135"/>
+  <dimension ref="A1:B136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2003,7 +2020,7 @@
       <c r="A79" t="s">
         <v>150</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="7" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2444,15 +2461,23 @@
         <v>245</v>
       </c>
       <c r="B134" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1">
       <c r="A135" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B135" t="s">
         <v>247</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" customHeight="1">
+      <c r="A136" t="s">
+        <v>248</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02FBB2A-B03F-4EF4-9334-6510B00B509B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43E506-07DB-4404-AE3F-0837F3702C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="254">
   <si>
     <t>relevante</t>
   </si>
@@ -953,6 +953,15 @@
   <si>
     <t>${(prefixo)_DGE_SQE_B2_P1_31_outras_especifique2}&gt;=2</t>
   </si>
+  <si>
+    <t>QEPE_DGE_SQE_B2_P15_1_participa_programa_Especifique1</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B2_P15_2_participa_programa_Especifique2</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B2_P15_3_participa_programa_Especifique3</t>
+  </si>
 </sst>
 </file>
 
@@ -994,7 +1003,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1016,6 +1025,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1064,6 +1079,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1380,10 +1398,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2480,6 +2498,30 @@
         <v>250</v>
       </c>
     </row>
+    <row r="137" spans="1:2" ht="15" customHeight="1">
+      <c r="A137" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" customHeight="1">
+      <c r="A138" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" customHeight="1">
+      <c r="A139" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A115:A116">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43E506-07DB-4404-AE3F-0837F3702C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1358C5D3-DA1F-44E8-B858-0704616CBE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="262">
   <si>
     <t>relevante</t>
   </si>
@@ -962,6 +962,30 @@
   <si>
     <t>QEPE_DGE_SQE_B2_P15_3_participa_programa_Especifique3</t>
   </si>
+  <si>
+    <t>QEPE_DGE_SQE_B3_P1_15_tipo_sala_outro_numero</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B3_P1_16_tipo_sala_outro_especifique1</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B3_P1_17_tipo_sala_outro_especifique2</t>
+  </si>
+  <si>
+    <t>QEPE_DGE_SQE_B3_P1_18_tipo_sala_outro_especifique3</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P1_14_tipo_sala_outro}=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=1 </t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=2</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=3</t>
+  </si>
 </sst>
 </file>
 
@@ -1062,7 +1086,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1082,6 +1106,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1398,10 +1423,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B139"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2522,6 +2547,38 @@
         <v>33</v>
       </c>
     </row>
+    <row r="140" spans="1:2" ht="15" customHeight="1">
+      <c r="A140" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" customHeight="1">
+      <c r="A141" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" customHeight="1">
+      <c r="A143" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A115:A116">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1358C5D3-DA1F-44E8-B858-0704616CBE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FE47D-DF0F-4DEC-9D25-F360DF4D0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="268">
   <si>
     <t>relevante</t>
   </si>
@@ -954,37 +954,55 @@
     <t>${(prefixo)_DGE_SQE_B2_P1_31_outras_especifique2}&gt;=2</t>
   </si>
   <si>
-    <t>QEPE_DGE_SQE_B2_P15_1_participa_programa_Especifique1</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B2_P15_2_participa_programa_Especifique2</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B2_P15_3_participa_programa_Especifique3</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B3_P1_15_tipo_sala_outro_numero</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B3_P1_16_tipo_sala_outro_especifique1</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B3_P1_17_tipo_sala_outro_especifique2</t>
-  </si>
-  <si>
-    <t>QEPE_DGE_SQE_B3_P1_18_tipo_sala_outro_especifique3</t>
-  </si>
-  <si>
     <t>${(prefixo)_DGE_SQE_B3_P1_14_tipo_sala_outro}=1</t>
   </si>
   <si>
-    <t xml:space="preserve">${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=1 </t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=2</t>
-  </si>
-  <si>
-    <t>${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=3</t>
+    <t>(prefixo)_DGE_SQE_B2_P15_1_participa_programa_Especifique1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P15_2_participa_programa_Especifique2</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B2_P15_3_participa_programa_Especifique3</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P1_16_tipo_sala_outro_especifique1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P1_17_tipo_sala_outro_especifique2</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P1_18_tipo_sala_outro_especifique3</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P8_17_insere_numero_outros_funcionarios_masc</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P8_18_insere_numero_outros_funcionarios_fem</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P8_19_insere_numero_outros_funcionarios_masc_especifique</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P8_20_insere_numero_outros_funcionarios_fem_especifique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${(prefixo)_DGE_SQE_B3_P1_14_tipo_sala_outro}=1 and ${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=1 </t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P1_14_tipo_sala_outro}=1 and ${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=2</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGE_SQE_B3_P1_14_tipo_sala_outro}=1 and ${(prefixo)_DGE_SQE_B3_P1_15_tipo_sala_outro_numero}&gt;=3</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGESQE_B3_P8_16_existem_otros_funcionarios}=1</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGESQE_B3_P8_16_existem_otros_funcionarios}=1 and ${QEPE_(prefixo)_DGESQE_B3_P1_15_tipo_sala_outro_numero}&gt;=1</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1045,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1055,6 +1073,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1107,6 +1131,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1423,16 +1451,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="93.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="214.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="214.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
@@ -2525,7 +2553,7 @@
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1">
       <c r="A137" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>33</v>
@@ -2533,7 +2561,7 @@
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1">
       <c r="A138" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>33</v>
@@ -2541,7 +2569,7 @@
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1">
       <c r="A139" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>33</v>
@@ -2549,34 +2577,66 @@
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1">
       <c r="A140" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="B140" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="B141" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B142" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1">
       <c r="A143" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B143" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" customHeight="1">
+      <c r="A144" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" customHeight="1">
+      <c r="A145" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" customHeight="1">
+      <c r="A146" s="10" t="s">
         <v>261</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" customHeight="1">
+      <c r="A147" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/relevante.xlsx
+++ b/relevante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell i5\Desktop\fase 3 actualizado\METADADOS AJUSTADOS\CONFIGURAÇÕES GERAIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FE47D-DF0F-4DEC-9D25-F360DF4D0B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66F6512-9C04-4325-B9CF-0E861B3CED68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="274">
   <si>
     <t>relevante</t>
   </si>
@@ -1003,6 +1003,24 @@
   </si>
   <si>
     <t>${(prefixo)_DGESQE_B3_P8_16_existem_otros_funcionarios}=1 and ${QEPE_(prefixo)_DGESQE_B3_P1_15_tipo_sala_outro_numero}&gt;=1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P9_17_insere_numero_outros_funcionarios_masc</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGESQE_B3_P9_16_existem_otros_funcionarios}=1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P9_18_insere_numero_outros_funcionarios_fem</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P9_19_insere_numero_outros_funcionarios_masc_especifique</t>
+  </si>
+  <si>
+    <t>${(prefixo)_DGESQE_B3_P9_16_existem_otros_funcionarios}=1 and ${QEPE_(prefixo)_DGESQE_B3_P1_15_tipo_sala_outro_numero}&gt;=1</t>
+  </si>
+  <si>
+    <t>(prefixo)_DGE_SQE_B3_P9_20_insere_numero_outros_funcionarios_fem_especifique</t>
   </si>
 </sst>
 </file>
@@ -1451,10 +1469,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B147"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:XFD144"/>
+      <selection activeCell="A148" sqref="A148:XFD151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2639,6 +2657,38 @@
         <v>267</v>
       </c>
     </row>
+    <row r="148" spans="1:2" ht="15" customHeight="1">
+      <c r="A148" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" customHeight="1">
+      <c r="A149" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" customHeight="1">
+      <c r="A150" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" customHeight="1">
+      <c r="A151" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A115:A116">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="total">
